--- a/ripple-tank-hardware-options.xlsx
+++ b/ripple-tank-hardware-options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dheard\Documents\0000-remote-labs\000-research-development\ripple-tank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0155AD0-EC54-4FCA-80D5-1EC80FA170B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADBAA5-B920-4AA9-92B8-7EC1B311E26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7125" windowWidth="29040" windowHeight="15840" xr2:uid="{4406A6DE-45B4-4BD0-BF94-8ADB7E103EF9}"/>
+    <workbookView xWindow="0" yWindow="1395" windowWidth="21600" windowHeight="12735" xr2:uid="{4406A6DE-45B4-4BD0-BF94-8ADB7E103EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,16 +357,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>53717</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158492</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -389,7 +389,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="4610101"/>
+          <a:off x="2590800" y="8067676"/>
           <a:ext cx="5702042" cy="3143250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -435,6 +435,138 @@
         <a:xfrm>
           <a:off x="190500" y="568472"/>
           <a:ext cx="4925534" cy="3832940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>362656</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>29010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134AE019-F196-44B7-B5C3-4344FB29CF25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="7200900"/>
+          <a:ext cx="5058481" cy="3115110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>296261</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0DE719-F7CF-4BFB-86C3-ED40D97F2F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="1295400"/>
+          <a:ext cx="7068536" cy="5430008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>553702</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>67455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC51BC6-1323-40BC-BC6A-DF858485C8AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1143000"/>
+          <a:ext cx="8973802" cy="5591955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B19703-5619-4623-BA09-42A8ECA7BCBE}">
   <dimension ref="B1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1502,7 @@
     <hyperlink ref="V9" r:id="rId1" xr:uid="{8F1A6E39-9F37-449F-B0A5-08B547FA1DF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>